--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Quote Level Discount</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>hub</t>
+  </si>
+  <si>
+    <t>poa</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>spoke</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>wave</t>
   </si>
 </sst>
 </file>
@@ -384,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -402,7 +417,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -424,10 +439,13 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -446,6 +464,84 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Quote Level Discount</t>
   </si>
@@ -59,22 +59,19 @@
     <t>3, Julius-Tandler-Platz, Wien, Austria, Wien</t>
   </si>
   <si>
+    <t>poa</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
     <t>hub</t>
-  </si>
-  <si>
-    <t>poa</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>spoke</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>wave</t>
   </si>
 </sst>
 </file>
@@ -399,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -440,12 +437,12 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -460,22 +457,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -489,12 +489,12 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -509,39 +509,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
